--- a/parte_A/DICCIONARIO.xlsx
+++ b/parte_A/DICCIONARIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56932\Desktop\Programas\QuintoSemestre\BaseDeDatos\INFO133-equipo09\parte_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0CB0C-6482-4202-8116-08820C8B34B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A218970D-CCA8-4F54-A5F2-6F4B7F668DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
-  <si>
-    <t>medio(PK_ID_MEDIO, nombre, continente, ciudad, pais, region, fundadores, website, fundacion)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Nombre del atributo</t>
   </si>
@@ -43,9 +40,6 @@
     <t>Obligatorio</t>
   </si>
   <si>
-    <t>noticia(PK_ID_NOTICIA, FK_ID_MEDIO, FK_ID_CATEGORIA, xp_titulo, xp_url, xp_fecha, xp_descripcion)</t>
-  </si>
-  <si>
     <t>Medio</t>
   </si>
   <si>
@@ -55,30 +49,18 @@
     <t>Este campo tiene un identificador para cada medio</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>categoria(PK_ID_CATEGORIA, FK_ID_MEDIO, xp_nombre, xp_url, ejemploUrl)</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>Este campo tiene el nombre del medio</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>eldiario, lapatilla</t>
   </si>
   <si>
-    <t>cuentas(PK(RED,USUARIO), FK_ID_MEDIO, seguidores, fechaActualizado, url)</t>
-  </si>
-  <si>
     <t>Continente</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>Este campo tiene el website del medio</t>
   </si>
   <si>
-    <t>CHAR</t>
-  </si>
-  <si>
     <t>Home - LaPatilla.com</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>Este campo tiene un identificador para cada categoria</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Este campo tiene el identicador del medio al que pertenece</t>
   </si>
   <si>
@@ -281,13 +257,19 @@
   </si>
   <si>
     <t>Nombre Tabla</t>
+  </si>
+  <si>
+    <t>VARCHAR </t>
+  </si>
+  <si>
+    <t>INT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +289,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -356,6 +345,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +679,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,216 +692,204 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="85.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="8"/>
-      <c r="K3" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4">
-        <v>2147483647</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G8" s="4">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="4">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G11" s="4">
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="4">
         <v>255</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G13" s="6">
         <v>45291</v>
@@ -920,330 +898,330 @@
         <v>36965</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="4">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="4">
         <v>11</v>
       </c>
-      <c r="G15" s="4">
-        <v>2147483647</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2147483647</v>
-      </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4">
         <v>11</v>
       </c>
-      <c r="G17" s="4">
-        <v>2147483647</v>
-      </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G18" s="4">
         <v>255</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G19" s="4">
         <v>255</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G20" s="4">
         <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G21" s="4">
         <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4">
-        <v>2147483647</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G23" s="4">
         <v>255</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G24" s="4">
         <v>255</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G25" s="4">
         <v>255</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G26" s="4">
         <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G28" s="4">
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
+        <v>68</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G29" s="4">
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="4">
         <v>11</v>
       </c>
-      <c r="G30" s="4">
-        <v>2147483647</v>
-      </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" t="s">
         <v>80</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="4">
         <v>11</v>
-      </c>
-      <c r="G31" s="4">
-        <v>2147483647</v>
       </c>
       <c r="H31" s="4">
         <v>2200000</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6">
         <v>45291</v>
@@ -1252,27 +1230,27 @@
         <v>45083</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="4:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="G33" s="4">
         <v>255</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
